--- a/KM_tabeller.xlsx
+++ b/KM_tabeller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://andreslagerlof-my.sharepoint.com/personal/andres_lagerlof_org/Documents/Övrigt/Fäktning/KM/KM_webb/fff_km/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésLagerlöf\OneDrive - Andrés Lagerlöf Konsulttjänst AB\Övrigt\Fäktning\KM\KM_webb\fff_km\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{615A4D5C-87FC-43F4-A861-E6DCDF03D94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5F2AA7B-478B-4533-80FD-394EF2E1F553}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E06AE8-3E8C-4D09-9063-ADAFF205F285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="3548" windowWidth="11100" windowHeight="9532" xr2:uid="{16425157-F0FC-458C-8D7A-9E63746A10A3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{16425157-F0FC-458C-8D7A-9E63746A10A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2006-2018" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Tor Forsse</t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866464F-E46C-4BE0-836C-4AB06FBCF41B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -480,183 +480,197 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>2006</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
     </row>
